--- a/Tvn2025.xlsx
+++ b/Tvn2025.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10905"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://panvitadd-my.sharepoint.com/personal/simon_ravnic_panvita_si/Documents/aaPrivat/AKMS/Točen v nulo 2025/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="194" documentId="8_{9EC61524-7F1E-574B-BB2A-7819609ED165}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A18B39A6-40A7-904F-9F8D-BDCB408A52E1}"/>
+  <xr:revisionPtr revIDLastSave="195" documentId="8_{9EC61524-7F1E-574B-BB2A-7819609ED165}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{35F5EAEF-E9D5-7F4A-A46B-F6B323D0D855}"/>
   <bookViews>
-    <workbookView xWindow="9920" yWindow="4660" windowWidth="29040" windowHeight="22060" xr2:uid="{B1C474AA-14A0-F24B-ACAB-FA280ABE2931}"/>
+    <workbookView xWindow="9920" yWindow="3860" windowWidth="29040" windowHeight="22060" xr2:uid="{B1C474AA-14A0-F24B-ACAB-FA280ABE2931}"/>
   </bookViews>
   <sheets>
     <sheet name="formule" sheetId="1" r:id="rId1"/>
@@ -570,9 +570,6 @@
     <t>deg</t>
   </si>
   <si>
-    <t>Pokopališče Dolnji Lakoš / Alsólakos</t>
-  </si>
-  <si>
     <t>vodno zajetje v smeri 315 od vasi Hodoš</t>
   </si>
   <si>
@@ -583,6 +580,9 @@
   </si>
   <si>
     <t>Prehod ceste čez železniško progo v smeri 178 od Petanjci in 260 od LJMS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pokopališče na sredini poti med Doljn Lakoš in Gornji Lakoš </t>
   </si>
 </sst>
 </file>
@@ -595,7 +595,7 @@
     <numFmt numFmtId="166" formatCode="#,##0.0"/>
     <numFmt numFmtId="167" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     <numFmt numFmtId="168" formatCode="#,##0.0000"/>
-    <numFmt numFmtId="176" formatCode="#,##0.00000000"/>
+    <numFmt numFmtId="169" formatCode="#,##0.00000000"/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
@@ -1017,7 +1017,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1133,6 +1133,29 @@
     </xf>
     <xf numFmtId="1" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="4" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="20" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="45" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1141,9 +1164,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1154,16 +1174,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1172,34 +1192,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="20" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="45" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1696,485 +1694,483 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="62.33203125" style="82" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="13.33203125" style="82" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.1640625" style="82" bestFit="1" customWidth="1"/>
-    <col min="5" max="8" width="11" style="84" bestFit="1"/>
-    <col min="9" max="9" width="12.6640625" style="90" bestFit="1" customWidth="1"/>
-    <col min="10" max="14" width="11.1640625" style="82" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11" style="82"/>
-    <col min="16" max="22" width="11.1640625" style="82" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="11" style="82"/>
+    <col min="1" max="1" width="62.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="11" style="1" bestFit="1"/>
+    <col min="9" max="9" width="12.6640625" style="73" bestFit="1" customWidth="1"/>
+    <col min="10" max="14" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="22" width="11.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="D1" s="83" t="s">
+      <c r="D1" s="67" t="s">
         <v>173</v>
       </c>
-      <c r="E1" s="84" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="84" t="s">
+      <c r="E1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="84" t="s">
+      <c r="G1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="84">
+      <c r="H1" s="1">
         <v>65</v>
       </c>
-      <c r="I1" s="84">
+      <c r="I1" s="1">
         <v>70</v>
       </c>
-      <c r="J1" s="84">
+      <c r="J1" s="1">
         <v>75</v>
       </c>
-      <c r="K1" s="84">
+      <c r="K1" s="1">
         <v>80</v>
       </c>
-      <c r="L1" s="84">
+      <c r="L1" s="1">
         <v>85</v>
       </c>
-      <c r="M1" s="84">
+      <c r="M1" s="1">
         <v>90</v>
       </c>
-      <c r="N1" s="84">
+      <c r="N1" s="1">
         <v>75</v>
       </c>
-      <c r="P1" s="84">
+      <c r="P1" s="1">
         <f>H1</f>
         <v>65</v>
       </c>
-      <c r="Q1" s="84">
+      <c r="Q1" s="1">
         <f t="shared" ref="Q1:V1" si="0">I1</f>
         <v>70</v>
       </c>
-      <c r="R1" s="84">
+      <c r="R1" s="1">
         <f t="shared" si="0"/>
         <v>75</v>
       </c>
-      <c r="S1" s="84">
+      <c r="S1" s="1">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="T1" s="84">
+      <c r="T1" s="1">
         <f t="shared" si="0"/>
         <v>85</v>
       </c>
-      <c r="U1" s="84">
+      <c r="U1" s="1">
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
-      <c r="V1" s="84">
+      <c r="V1" s="1">
         <f t="shared" si="0"/>
         <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A2" s="82" t="s">
-        <v>177</v>
-      </c>
-      <c r="B2" s="85">
+      <c r="A2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B2" s="68">
         <v>46.600850335001397</v>
       </c>
-      <c r="C2" s="85">
+      <c r="C2" s="68">
         <v>16.180022953671202</v>
       </c>
-      <c r="D2" s="86">
+      <c r="D2" s="69">
         <f>MOD(DEGREES(ATAN2(
 COS(RADIANS(B2))*SIN(RADIANS(B3)) - SIN(RADIANS(B2))*COS(RADIANS(B3))*COS(RADIANS(C3-C2)),
 SIN(RADIANS(C3-C2))*COS(RADIANS(B3))
 )),360)</f>
         <v>189.68607148826936</v>
       </c>
-      <c r="H2" s="82">
+      <c r="H2">
         <v>4</v>
       </c>
-      <c r="I2" s="82">
+      <c r="I2">
         <v>4</v>
       </c>
-      <c r="J2" s="82">
+      <c r="J2">
         <v>4</v>
       </c>
-      <c r="K2" s="82">
+      <c r="K2">
         <v>4</v>
       </c>
-      <c r="L2" s="82">
+      <c r="L2">
         <v>4</v>
       </c>
-      <c r="M2" s="82">
+      <c r="M2">
         <v>4</v>
       </c>
-      <c r="N2" s="82">
+      <c r="N2">
         <v>4</v>
       </c>
-      <c r="P2" s="87">
+      <c r="P2" s="70">
         <f>H2/24</f>
         <v>0.16666666666666666</v>
       </c>
-      <c r="Q2" s="87">
+      <c r="Q2" s="70">
         <f>I2/24</f>
         <v>0.16666666666666666</v>
       </c>
-      <c r="R2" s="87">
+      <c r="R2" s="70">
         <f t="shared" ref="R2:V2" si="1">J2/24</f>
         <v>0.16666666666666666</v>
       </c>
-      <c r="S2" s="87">
+      <c r="S2" s="70">
         <f t="shared" si="1"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="T2" s="87">
+      <c r="T2" s="70">
         <f t="shared" si="1"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="U2" s="87">
+      <c r="U2" s="70">
         <f t="shared" si="1"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="V2" s="87">
+      <c r="V2" s="70">
         <f t="shared" si="1"/>
         <v>0.16666666666666666</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A3" s="82" t="s">
+      <c r="A3" t="s">
         <v>161</v>
       </c>
-      <c r="B3" s="85">
+      <c r="B3" s="68">
         <v>46.500800369520903</v>
       </c>
-      <c r="C3" s="85">
+      <c r="C3" s="68">
         <v>16.1552150892832</v>
       </c>
-      <c r="D3" s="86">
+      <c r="D3" s="69">
         <f t="shared" ref="D3:D10" si="2">MOD(DEGREES(ATAN2(
 COS(RADIANS(B3))*SIN(RADIANS(B4)) - SIN(RADIANS(B3))*COS(RADIANS(B4))*COS(RADIANS(C4-C3)),
 SIN(RADIANS(C4-C3))*COS(RADIANS(B4))
 )),360)</f>
         <v>278.12217329160904</v>
       </c>
-      <c r="E3" s="88">
-        <f>2*6371*ASIN(MIN(1,SQRT(POWER(SIN((RADIANS(B3)-RADIANS(B2))/2),2)+COS(RADIANS(B2))*COS(RADIANS(B3))*POWER(SIN((RADIANS(C3)-RADIANS(C2))/2),2))))</f>
+      <c r="E3" s="71">
+        <f t="shared" ref="E3:E10" si="3">2*6371*ASIN(MIN(1,SQRT(POWER(SIN((RADIANS(B3)-RADIANS(B2))/2),2)+COS(RADIANS(B2))*COS(RADIANS(B3))*POWER(SIN((RADIANS(C3)-RADIANS(C2))/2),2))))</f>
         <v>11.285633542247748</v>
       </c>
-      <c r="F3" s="84">
-        <f t="shared" ref="F3:F9" si="3">E3*0.539957</f>
+      <c r="F3" s="1">
+        <f t="shared" ref="F3:F9" si="4">E3*0.539957</f>
         <v>6.0937568305714676</v>
       </c>
-      <c r="G3" s="84">
+      <c r="G3" s="1">
         <f>E3/1.609</f>
         <v>7.0140668379414217</v>
       </c>
-      <c r="H3" s="84">
-        <f>60*$F3/H$1</f>
+      <c r="H3" s="1">
+        <f t="shared" ref="H3:M10" si="5">60*$F3/H$1</f>
         <v>5.6250063051428931</v>
       </c>
-      <c r="I3" s="84">
-        <f>60*$F3/I$1</f>
+      <c r="I3" s="1">
+        <f t="shared" si="5"/>
         <v>5.2232201404898291</v>
       </c>
-      <c r="J3" s="84">
-        <f>60*$F3/J$1</f>
+      <c r="J3" s="1">
+        <f t="shared" si="5"/>
         <v>4.8750054644571739</v>
       </c>
-      <c r="K3" s="84">
-        <f>60*$F3/K$1</f>
+      <c r="K3" s="1">
+        <f t="shared" si="5"/>
         <v>4.5703176229286004</v>
       </c>
-      <c r="L3" s="84">
-        <f>60*$F3/L$1</f>
+      <c r="L3" s="1">
+        <f t="shared" si="5"/>
         <v>4.3014754098151533</v>
       </c>
-      <c r="M3" s="84">
-        <f>60*$F3/M$1</f>
+      <c r="M3" s="1">
+        <f t="shared" si="5"/>
         <v>4.0625045537143114</v>
       </c>
-      <c r="N3" s="84">
-        <f>60*$G3/N$1</f>
+      <c r="N3" s="1">
+        <f t="shared" ref="N3:N10" si="6">60*$G3/N$1</f>
         <v>5.6112534703531374</v>
       </c>
-      <c r="P3" s="87">
+      <c r="P3" s="70">
         <f>P2+(H3/24)</f>
         <v>0.40104192938095384</v>
       </c>
-      <c r="Q3" s="87">
+      <c r="Q3" s="70">
         <f>Q2+(I3/24)</f>
         <v>0.38430083918707619</v>
       </c>
-      <c r="R3" s="87">
-        <f t="shared" ref="R3:V8" si="4">R2+(J3/24)</f>
+      <c r="R3" s="70">
+        <f t="shared" ref="R3:V8" si="7">R2+(J3/24)</f>
         <v>0.36979189435238224</v>
       </c>
-      <c r="S3" s="87">
-        <f t="shared" si="4"/>
+      <c r="S3" s="70">
+        <f t="shared" si="7"/>
         <v>0.35709656762202502</v>
       </c>
-      <c r="T3" s="87">
-        <f t="shared" si="4"/>
+      <c r="T3" s="70">
+        <f t="shared" si="7"/>
         <v>0.34589480874229805</v>
       </c>
-      <c r="U3" s="87">
-        <f t="shared" si="4"/>
+      <c r="U3" s="70">
+        <f t="shared" si="7"/>
         <v>0.33593768973809629</v>
       </c>
-      <c r="V3" s="87">
-        <f t="shared" si="4"/>
+      <c r="V3" s="70">
+        <f t="shared" si="7"/>
         <v>0.40046889459804735</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A4" s="82" t="s">
+      <c r="A4" t="s">
         <v>162</v>
       </c>
-      <c r="B4" s="85">
+      <c r="B4" s="68">
         <v>46.515128472554302</v>
       </c>
-      <c r="C4" s="85">
+      <c r="C4" s="68">
         <v>16.008368673660499</v>
       </c>
-      <c r="D4" s="86">
+      <c r="D4" s="69">
         <f t="shared" si="2"/>
         <v>22.254525998819162</v>
       </c>
-      <c r="E4" s="88">
-        <f>2*6371*ASIN(MIN(1,SQRT(POWER(SIN((RADIANS(B4)-RADIANS(B3))/2),2)+COS(RADIANS(B3))*COS(RADIANS(B4))*POWER(SIN((RADIANS(C4)-RADIANS(C3))/2),2))))</f>
+      <c r="E4" s="71">
+        <f t="shared" si="3"/>
         <v>11.350573114600447</v>
       </c>
-      <c r="F4" s="84">
-        <f t="shared" si="3"/>
+      <c r="F4" s="1">
+        <f t="shared" si="4"/>
         <v>6.1288214072403138</v>
       </c>
-      <c r="G4" s="84">
-        <f t="shared" ref="G4:G9" si="5">E4/1.609</f>
+      <c r="G4" s="1">
+        <f t="shared" ref="G4:G9" si="8">E4/1.609</f>
         <v>7.0544270444999668</v>
       </c>
-      <c r="H4" s="84">
-        <f>60*$F4/H$1</f>
+      <c r="H4" s="1">
+        <f t="shared" si="5"/>
         <v>5.6573736066833664</v>
       </c>
-      <c r="I4" s="84">
-        <f>60*$F4/I$1</f>
+      <c r="I4" s="1">
+        <f t="shared" si="5"/>
         <v>5.2532754919202693</v>
       </c>
-      <c r="J4" s="84">
-        <f>60*$F4/J$1</f>
+      <c r="J4" s="1">
+        <f t="shared" si="5"/>
         <v>4.9030571257922508</v>
       </c>
-      <c r="K4" s="84">
-        <f>60*$F4/K$1</f>
+      <c r="K4" s="1">
+        <f t="shared" si="5"/>
         <v>4.5966160554302355</v>
       </c>
-      <c r="L4" s="84">
-        <f>60*$F4/L$1</f>
+      <c r="L4" s="1">
+        <f t="shared" si="5"/>
         <v>4.326226875699045</v>
       </c>
-      <c r="M4" s="84">
-        <f>60*$F4/M$1</f>
+      <c r="M4" s="1">
+        <f t="shared" si="5"/>
         <v>4.0858809381602095</v>
       </c>
-      <c r="N4" s="84">
-        <f>60*$G4/N$1</f>
+      <c r="N4" s="1">
+        <f t="shared" si="6"/>
         <v>5.6435416355999735</v>
       </c>
-      <c r="P4" s="87">
-        <f t="shared" ref="P4:Q8" si="6">P3+(H4/24)</f>
+      <c r="P4" s="70">
+        <f t="shared" ref="P4:Q8" si="9">P3+(H4/24)</f>
         <v>0.63676582965942741</v>
       </c>
-      <c r="Q4" s="87">
-        <f t="shared" si="6"/>
+      <c r="Q4" s="70">
+        <f t="shared" si="9"/>
         <v>0.60318731801708747</v>
       </c>
-      <c r="R4" s="87">
-        <f t="shared" si="4"/>
+      <c r="R4" s="70">
+        <f t="shared" si="7"/>
         <v>0.5740859412603927</v>
       </c>
-      <c r="S4" s="87">
-        <f t="shared" si="4"/>
+      <c r="S4" s="70">
+        <f t="shared" si="7"/>
         <v>0.5486222365982848</v>
       </c>
-      <c r="T4" s="87">
-        <f t="shared" si="4"/>
+      <c r="T4" s="70">
+        <f t="shared" si="7"/>
         <v>0.52615426189642489</v>
       </c>
-      <c r="U4" s="87">
-        <f t="shared" si="4"/>
+      <c r="U4" s="70">
+        <f t="shared" si="7"/>
         <v>0.506182728828105</v>
       </c>
-      <c r="V4" s="87">
-        <f t="shared" si="4"/>
+      <c r="V4" s="70">
+        <f t="shared" si="7"/>
         <v>0.63561646274804628</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A5" s="82" t="s">
-        <v>178</v>
-      </c>
-      <c r="B5" s="85">
+      <c r="A5" t="s">
+        <v>177</v>
+      </c>
+      <c r="B5" s="68">
         <v>46.616981674720421</v>
       </c>
-      <c r="C5" s="85">
+      <c r="C5" s="68">
         <v>16.069057084510899</v>
       </c>
-      <c r="D5" s="86">
+      <c r="D5" s="69">
         <f t="shared" si="2"/>
         <v>353.15140372477038</v>
       </c>
-      <c r="E5" s="88">
-        <f>2*6371*ASIN(MIN(1,SQRT(POWER(SIN((RADIANS(B5)-RADIANS(B4))/2),2)+COS(RADIANS(B4))*COS(RADIANS(B5))*POWER(SIN((RADIANS(C5)-RADIANS(C4))/2),2))))</f>
+      <c r="E5" s="71">
+        <f t="shared" si="3"/>
         <v>12.239018736166773</v>
       </c>
-      <c r="F5" s="84">
-        <f t="shared" si="3"/>
+      <c r="F5" s="1">
+        <f t="shared" si="4"/>
         <v>6.608543839724403</v>
       </c>
-      <c r="G5" s="84">
+      <c r="G5" s="1">
+        <f t="shared" si="8"/>
+        <v>7.6065995874249683</v>
+      </c>
+      <c r="H5" s="1">
         <f t="shared" si="5"/>
-        <v>7.6065995874249683</v>
-      </c>
-      <c r="H5" s="84">
-        <f>60*$F5/H$1</f>
         <v>6.1001943135917562</v>
       </c>
-      <c r="I5" s="84">
-        <f>60*$F5/I$1</f>
+      <c r="I5" s="1">
+        <f t="shared" si="5"/>
         <v>5.6644661483352028</v>
       </c>
-      <c r="J5" s="84">
-        <f>60*$F5/J$1</f>
+      <c r="J5" s="1">
+        <f t="shared" si="5"/>
         <v>5.2868350717795218</v>
       </c>
-      <c r="K5" s="84">
-        <f>60*$F5/K$1</f>
+      <c r="K5" s="1">
+        <f t="shared" si="5"/>
         <v>4.9564078797933018</v>
       </c>
-      <c r="L5" s="84">
-        <f>60*$F5/L$1</f>
+      <c r="L5" s="1">
+        <f t="shared" si="5"/>
         <v>4.6648544750995784</v>
       </c>
-      <c r="M5" s="84">
-        <f>60*$F5/M$1</f>
+      <c r="M5" s="1">
+        <f t="shared" si="5"/>
         <v>4.405695893149602</v>
       </c>
-      <c r="N5" s="84">
-        <f>60*$G5/N$1</f>
+      <c r="N5" s="1">
+        <f t="shared" si="6"/>
         <v>6.0852796699399745</v>
       </c>
-      <c r="P5" s="87">
+      <c r="P5" s="70">
         <f>P4+(H5/24)</f>
         <v>0.89094059272575055</v>
       </c>
-      <c r="Q5" s="87">
+      <c r="Q5" s="70">
         <f>Q4+(I5/24)</f>
         <v>0.83920674086438762</v>
       </c>
-      <c r="R5" s="87">
-        <f t="shared" si="4"/>
+      <c r="R5" s="70">
+        <f t="shared" si="7"/>
         <v>0.79437073591787277</v>
       </c>
-      <c r="S5" s="87">
-        <f t="shared" si="4"/>
+      <c r="S5" s="70">
+        <f t="shared" si="7"/>
         <v>0.75513923158967233</v>
       </c>
-      <c r="T5" s="87">
-        <f t="shared" si="4"/>
+      <c r="T5" s="70">
+        <f t="shared" si="7"/>
         <v>0.72052319835890732</v>
       </c>
-      <c r="U5" s="87">
-        <f t="shared" si="4"/>
+      <c r="U5" s="70">
+        <f t="shared" si="7"/>
         <v>0.68975339104267175</v>
       </c>
-      <c r="V5" s="87">
-        <f t="shared" si="4"/>
+      <c r="V5" s="70">
+        <f t="shared" si="7"/>
         <v>0.88916978232887856</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A6" s="82" t="s">
+      <c r="A6" t="s">
         <v>163</v>
       </c>
-      <c r="B6" s="85">
+      <c r="B6" s="68">
         <v>46.800823749993327</v>
       </c>
-      <c r="C6" s="85">
+      <c r="C6" s="68">
         <v>16.036800946819529</v>
       </c>
-      <c r="D6" s="86">
+      <c r="D6" s="69">
         <f t="shared" si="2"/>
         <v>78.901523481162442</v>
       </c>
-      <c r="E6" s="88">
-        <f>2*6371*ASIN(MIN(1,SQRT(POWER(SIN((RADIANS(B6)-RADIANS(B5))/2),2)+COS(RADIANS(B5))*COS(RADIANS(B6))*POWER(SIN((RADIANS(C6)-RADIANS(C5))/2),2))))</f>
+      <c r="E6" s="71">
+        <f t="shared" si="3"/>
         <v>20.589722207221286</v>
       </c>
-      <c r="F6" s="84">
-        <f t="shared" si="3"/>
+      <c r="F6" s="1">
+        <f t="shared" si="4"/>
         <v>11.117564633844584</v>
       </c>
-      <c r="G6" s="84">
+      <c r="G6" s="1">
+        <f t="shared" si="8"/>
+        <v>12.796595529658973</v>
+      </c>
+      <c r="H6" s="1">
         <f t="shared" si="5"/>
-        <v>12.796595529658973</v>
-      </c>
-      <c r="H6" s="84">
-        <f>60*$F6/H$1</f>
         <v>10.262367354318078</v>
       </c>
-      <c r="I6" s="84">
-        <f>60*$F6/I$1</f>
+      <c r="I6" s="1">
+        <f t="shared" si="5"/>
         <v>9.5293411147239286</v>
       </c>
-      <c r="J6" s="84">
-        <f>60*$F6/J$1</f>
+      <c r="J6" s="1">
+        <f t="shared" si="5"/>
         <v>8.8940517070756666</v>
       </c>
-      <c r="K6" s="84">
-        <f>60*$F6/K$1</f>
+      <c r="K6" s="1">
+        <f t="shared" si="5"/>
         <v>8.3381734753834387</v>
       </c>
-      <c r="L6" s="84">
-        <f>60*$F6/L$1</f>
+      <c r="L6" s="1">
+        <f t="shared" si="5"/>
         <v>7.8476926827138236</v>
       </c>
-      <c r="M6" s="84">
-        <f>60*$F6/M$1</f>
+      <c r="M6" s="1">
+        <f t="shared" si="5"/>
         <v>7.4117097558963891</v>
       </c>
-      <c r="N6" s="84">
-        <f>60*$G6/N$1</f>
+      <c r="N6" s="1">
+        <f t="shared" si="6"/>
         <v>10.237276423727177</v>
       </c>
-      <c r="P6" s="87">
-        <f t="shared" si="6"/>
+      <c r="P6" s="70">
+        <f t="shared" si="9"/>
         <v>1.3185392324890037</v>
       </c>
-      <c r="Q6" s="87">
-        <f t="shared" si="6"/>
+      <c r="Q6" s="70">
+        <f t="shared" si="9"/>
         <v>1.2362626206445513</v>
       </c>
-      <c r="R6" s="87">
-        <f t="shared" si="4"/>
+      <c r="R6" s="70">
+        <f t="shared" si="7"/>
         <v>1.1649562237126923</v>
       </c>
-      <c r="S6" s="87">
-        <f t="shared" si="4"/>
+      <c r="S6" s="70">
+        <f t="shared" si="7"/>
         <v>1.1025631263973157</v>
       </c>
-      <c r="T6" s="87">
-        <f t="shared" si="4"/>
+      <c r="T6" s="70">
+        <f t="shared" si="7"/>
         <v>1.0475103934719834</v>
       </c>
-      <c r="U6" s="87">
-        <f t="shared" si="4"/>
+      <c r="U6" s="70">
+        <f t="shared" si="7"/>
         <v>0.99857463087168796</v>
       </c>
-      <c r="V6" s="87">
-        <f t="shared" si="4"/>
+      <c r="V6" s="70">
+        <f t="shared" si="7"/>
         <v>1.3157229666508443</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A7" s="82" t="s">
-        <v>175</v>
+      <c r="A7" t="s">
+        <v>174</v>
       </c>
       <c r="B7">
         <v>46.836955230315297</v>
@@ -2182,325 +2178,325 @@
       <c r="C7">
         <v>16.308447828457499</v>
       </c>
-      <c r="D7" s="86">
+      <c r="D7" s="69">
         <f t="shared" si="2"/>
         <v>229.51043839900501</v>
       </c>
-      <c r="E7" s="88">
-        <f>2*6371*ASIN(MIN(1,SQRT(POWER(SIN((RADIANS(B7)-RADIANS(B6))/2),2)+COS(RADIANS(B6))*COS(RADIANS(B7))*POWER(SIN((RADIANS(C7)-RADIANS(C6))/2),2))))</f>
+      <c r="E7" s="71">
+        <f t="shared" si="3"/>
         <v>21.056825375148438</v>
       </c>
-      <c r="F7" s="84">
-        <f t="shared" si="3"/>
+      <c r="F7" s="1">
+        <f t="shared" si="4"/>
         <v>11.369780259089026</v>
       </c>
-      <c r="G7" s="84">
+      <c r="G7" s="1">
+        <f t="shared" si="8"/>
+        <v>13.086902035517985</v>
+      </c>
+      <c r="H7" s="1">
         <f t="shared" si="5"/>
-        <v>13.086902035517985</v>
-      </c>
-      <c r="H7" s="84">
-        <f>60*$F7/H$1</f>
         <v>10.49518177762064</v>
       </c>
-      <c r="I7" s="84">
-        <f>60*$F7/I$1</f>
+      <c r="I7" s="1">
+        <f t="shared" si="5"/>
         <v>9.7455259363620232</v>
       </c>
-      <c r="J7" s="84">
-        <f>60*$F7/J$1</f>
+      <c r="J7" s="1">
+        <f t="shared" si="5"/>
         <v>9.095824207271221</v>
       </c>
-      <c r="K7" s="84">
-        <f>60*$F7/K$1</f>
+      <c r="K7" s="1">
+        <f t="shared" si="5"/>
         <v>8.5273351943167697</v>
       </c>
-      <c r="L7" s="84">
-        <f>60*$F7/L$1</f>
+      <c r="L7" s="1">
+        <f t="shared" si="5"/>
         <v>8.0257272417099017</v>
       </c>
-      <c r="M7" s="84">
-        <f>60*$F7/M$1</f>
+      <c r="M7" s="1">
+        <f t="shared" si="5"/>
         <v>7.5798535060593508</v>
       </c>
-      <c r="N7" s="84">
-        <f>60*$G7/N$1</f>
+      <c r="N7" s="1">
+        <f t="shared" si="6"/>
         <v>10.469521628414387</v>
       </c>
-      <c r="P7" s="87">
-        <f t="shared" si="6"/>
+      <c r="P7" s="70">
+        <f t="shared" si="9"/>
         <v>1.7558384732231971</v>
       </c>
-      <c r="Q7" s="87">
-        <f t="shared" si="6"/>
+      <c r="Q7" s="70">
+        <f t="shared" si="9"/>
         <v>1.6423262013263022</v>
       </c>
-      <c r="R7" s="87">
-        <f t="shared" si="4"/>
+      <c r="R7" s="70">
+        <f t="shared" si="7"/>
         <v>1.5439488990156598</v>
       </c>
-      <c r="S7" s="87">
-        <f t="shared" si="4"/>
+      <c r="S7" s="70">
+        <f t="shared" si="7"/>
         <v>1.4578687594938478</v>
       </c>
-      <c r="T7" s="87">
-        <f t="shared" si="4"/>
+      <c r="T7" s="70">
+        <f t="shared" si="7"/>
         <v>1.3819156952098959</v>
       </c>
-      <c r="U7" s="87">
-        <f t="shared" si="4"/>
+      <c r="U7" s="70">
+        <f t="shared" si="7"/>
         <v>1.3144018602908276</v>
       </c>
-      <c r="V7" s="87">
-        <f t="shared" si="4"/>
+      <c r="V7" s="70">
+        <f t="shared" si="7"/>
         <v>1.7519530345014438</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A8" s="82" t="s">
+      <c r="A8" t="s">
         <v>164</v>
       </c>
-      <c r="B8" s="85">
+      <c r="B8" s="68">
         <v>46.775187195231062</v>
       </c>
-      <c r="C8" s="85">
+      <c r="C8" s="68">
         <v>16.20289251762869</v>
       </c>
-      <c r="D8" s="86">
+      <c r="D8" s="69">
         <f t="shared" si="2"/>
         <v>144.91288150752052</v>
       </c>
-      <c r="E8" s="88">
-        <f>2*6371*ASIN(MIN(1,SQRT(POWER(SIN((RADIANS(B8)-RADIANS(B7))/2),2)+COS(RADIANS(B7))*COS(RADIANS(B8))*POWER(SIN((RADIANS(C8)-RADIANS(C7))/2),2))))</f>
+      <c r="E8" s="71">
+        <f t="shared" si="3"/>
         <v>10.569524999862779</v>
       </c>
-      <c r="F8" s="84">
-        <f t="shared" si="3"/>
+      <c r="F8" s="1">
+        <f t="shared" si="4"/>
         <v>5.7070890103509067</v>
       </c>
-      <c r="G8" s="84">
+      <c r="G8" s="1">
+        <f t="shared" si="8"/>
+        <v>6.5690024859308753</v>
+      </c>
+      <c r="H8" s="1">
         <f t="shared" si="5"/>
-        <v>6.5690024859308753</v>
-      </c>
-      <c r="H8" s="84">
-        <f>60*$F8/H$1</f>
         <v>5.2680821634008366</v>
       </c>
-      <c r="I8" s="84">
-        <f>60*$F8/I$1</f>
+      <c r="I8" s="1">
+        <f t="shared" si="5"/>
         <v>4.8917905803007766</v>
       </c>
-      <c r="J8" s="84">
-        <f>60*$F8/J$1</f>
+      <c r="J8" s="1">
+        <f t="shared" si="5"/>
         <v>4.5656712082807251</v>
       </c>
-      <c r="K8" s="84">
-        <f>60*$F8/K$1</f>
+      <c r="K8" s="1">
+        <f t="shared" si="5"/>
         <v>4.2803167577631793</v>
       </c>
-      <c r="L8" s="84">
-        <f>60*$F8/L$1</f>
+      <c r="L8" s="1">
+        <f t="shared" si="5"/>
         <v>4.0285334190712279</v>
       </c>
-      <c r="M8" s="84">
-        <f>60*$F8/M$1</f>
+      <c r="M8" s="1">
+        <f t="shared" si="5"/>
         <v>3.8047260069006041</v>
       </c>
-      <c r="N8" s="84">
-        <f>60*$G8/N$1</f>
+      <c r="N8" s="1">
+        <f t="shared" si="6"/>
         <v>5.2552019887446999</v>
       </c>
-      <c r="P8" s="87">
+      <c r="P8" s="70">
         <f>P7+(H8/24)</f>
         <v>1.9753418966982319</v>
       </c>
-      <c r="Q8" s="87">
-        <f t="shared" si="6"/>
+      <c r="Q8" s="70">
+        <f t="shared" si="9"/>
         <v>1.8461508088388345</v>
       </c>
-      <c r="R8" s="87">
-        <f t="shared" si="4"/>
+      <c r="R8" s="70">
+        <f t="shared" si="7"/>
         <v>1.73418519936069</v>
       </c>
-      <c r="S8" s="87">
-        <f t="shared" si="4"/>
+      <c r="S8" s="70">
+        <f t="shared" si="7"/>
         <v>1.6362152910673136</v>
       </c>
-      <c r="T8" s="87">
-        <f t="shared" si="4"/>
+      <c r="T8" s="70">
+        <f t="shared" si="7"/>
         <v>1.5497712543378637</v>
       </c>
-      <c r="U8" s="87">
-        <f t="shared" si="4"/>
+      <c r="U8" s="70">
+        <f t="shared" si="7"/>
         <v>1.4729321105783528</v>
       </c>
-      <c r="V8" s="87">
-        <f t="shared" si="4"/>
+      <c r="V8" s="70">
+        <f t="shared" si="7"/>
         <v>1.970919784032473</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A9" s="82" t="s">
-        <v>174</v>
-      </c>
-      <c r="B9" s="85">
+      <c r="A9" t="s">
+        <v>178</v>
+      </c>
+      <c r="B9" s="68">
         <v>46.552346317575889</v>
       </c>
-      <c r="C9" s="85">
+      <c r="C9" s="68">
         <v>16.430293184364789</v>
       </c>
-      <c r="D9" s="86">
+      <c r="D9" s="69">
         <f t="shared" si="2"/>
         <v>292.6004119770036</v>
       </c>
-      <c r="E9" s="88">
-        <f>2*6371*ASIN(MIN(1,SQRT(POWER(SIN((RADIANS(B9)-RADIANS(B8))/2),2)+COS(RADIANS(B8))*COS(RADIANS(B9))*POWER(SIN((RADIANS(C9)-RADIANS(C8))/2),2))))</f>
+      <c r="E9" s="71">
+        <f t="shared" si="3"/>
         <v>30.250882696150487</v>
       </c>
-      <c r="F9" s="84">
-        <f t="shared" si="3"/>
+      <c r="F9" s="1">
+        <f t="shared" si="4"/>
         <v>16.334175867965328</v>
       </c>
-      <c r="G9" s="84">
+      <c r="G9" s="1">
+        <f t="shared" si="8"/>
+        <v>18.801045802455246</v>
+      </c>
+      <c r="H9" s="1">
         <f t="shared" si="5"/>
-        <v>18.801045802455246</v>
-      </c>
-      <c r="H9" s="84">
-        <f>60*$F9/H$1</f>
         <v>15.077700801198766</v>
       </c>
-      <c r="I9" s="84">
-        <f>60*$F9/I$1</f>
+      <c r="I9" s="1">
+        <f t="shared" si="5"/>
         <v>14.00072217254171</v>
       </c>
-      <c r="J9" s="84">
-        <f>60*$F9/J$1</f>
+      <c r="J9" s="1">
+        <f t="shared" si="5"/>
         <v>13.067340694372263</v>
       </c>
-      <c r="K9" s="84">
-        <f>60*$F9/K$1</f>
+      <c r="K9" s="1">
+        <f t="shared" si="5"/>
         <v>12.250631900973996</v>
       </c>
-      <c r="L9" s="84">
-        <f>60*$F9/L$1</f>
+      <c r="L9" s="1">
+        <f t="shared" si="5"/>
         <v>11.53000649503435</v>
       </c>
-      <c r="M9" s="84">
-        <f>60*$F9/M$1</f>
+      <c r="M9" s="1">
+        <f t="shared" si="5"/>
         <v>10.889450578643553</v>
       </c>
-      <c r="N9" s="84">
-        <f>60*$G9/N$1</f>
+      <c r="N9" s="1">
+        <f t="shared" si="6"/>
         <v>15.040836641964198</v>
       </c>
-      <c r="P9" s="87">
-        <f t="shared" ref="P9" si="7">P8+(H9/24)</f>
+      <c r="P9" s="70">
+        <f t="shared" ref="P9" si="10">P8+(H9/24)</f>
         <v>2.6035794300815138</v>
       </c>
-      <c r="Q9" s="87">
-        <f t="shared" ref="Q9" si="8">Q8+(I9/24)</f>
+      <c r="Q9" s="70">
+        <f t="shared" ref="Q9" si="11">Q8+(I9/24)</f>
         <v>2.4295142326947392</v>
       </c>
-      <c r="R9" s="87">
-        <f t="shared" ref="R9" si="9">R8+(J9/24)</f>
+      <c r="R9" s="70">
+        <f t="shared" ref="R9" si="12">R8+(J9/24)</f>
         <v>2.2786577282928677</v>
       </c>
-      <c r="S9" s="87">
-        <f t="shared" ref="S9" si="10">S8+(K9/24)</f>
+      <c r="S9" s="70">
+        <f t="shared" ref="S9" si="13">S8+(K9/24)</f>
         <v>2.1466582869412303</v>
       </c>
-      <c r="T9" s="87">
-        <f t="shared" ref="T9" si="11">T8+(L9/24)</f>
+      <c r="T9" s="70">
+        <f t="shared" ref="T9" si="14">T8+(L9/24)</f>
         <v>2.0301881916309616</v>
       </c>
-      <c r="U9" s="87">
-        <f t="shared" ref="U9" si="12">U8+(M9/24)</f>
+      <c r="U9" s="70">
+        <f t="shared" ref="U9" si="15">U8+(M9/24)</f>
         <v>1.9266592180218343</v>
       </c>
-      <c r="V9" s="87">
-        <f t="shared" ref="V9" si="13">V8+(N9/24)</f>
+      <c r="V9" s="70">
+        <f t="shared" ref="V9" si="16">V8+(N9/24)</f>
         <v>2.5976213107809811</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A10" s="82" t="s">
+      <c r="A10" t="s">
         <v>165</v>
       </c>
-      <c r="B10" s="85">
+      <c r="B10" s="68">
         <v>46.608093848672603</v>
       </c>
-      <c r="C10" s="85">
+      <c r="C10" s="68">
         <v>16.234769094059349</v>
       </c>
-      <c r="D10" s="86">
+      <c r="D10" s="69">
         <f t="shared" si="2"/>
         <v>201.8364971554349</v>
       </c>
-      <c r="E10" s="88">
-        <f>2*6371*ASIN(MIN(1,SQRT(POWER(SIN((RADIANS(B10)-RADIANS(B9))/2),2)+COS(RADIANS(B9))*COS(RADIANS(B10))*POWER(SIN((RADIANS(C10)-RADIANS(C9))/2),2))))</f>
+      <c r="E10" s="71">
+        <f t="shared" si="3"/>
         <v>16.178294519833894</v>
       </c>
-      <c r="F10" s="84">
-        <f t="shared" ref="F10:F11" si="14">E10*0.539957</f>
+      <c r="F10" s="1">
+        <f t="shared" ref="F10:F11" si="17">E10*0.539957</f>
         <v>8.7355833740459499</v>
       </c>
-      <c r="G10" s="84">
-        <f t="shared" ref="G10:G11" si="15">E10/1.609</f>
+      <c r="G10" s="1">
+        <f t="shared" ref="G10:G11" si="18">E10/1.609</f>
         <v>10.054875400766871</v>
       </c>
-      <c r="H10" s="84">
-        <f>60*$F10/H$1</f>
+      <c r="H10" s="1">
+        <f t="shared" si="5"/>
         <v>8.0636154221962624</v>
       </c>
-      <c r="I10" s="84">
-        <f>60*$F10/I$1</f>
+      <c r="I10" s="1">
+        <f t="shared" si="5"/>
         <v>7.4876428920393856</v>
       </c>
-      <c r="J10" s="84">
-        <f>60*$F10/J$1</f>
+      <c r="J10" s="1">
+        <f t="shared" si="5"/>
         <v>6.9884666992367599</v>
       </c>
-      <c r="K10" s="84">
-        <f>60*$F10/K$1</f>
+      <c r="K10" s="1">
+        <f t="shared" si="5"/>
         <v>6.5516875305344628</v>
       </c>
-      <c r="L10" s="84">
-        <f>60*$F10/L$1</f>
+      <c r="L10" s="1">
+        <f t="shared" si="5"/>
         <v>6.1662941463853764</v>
       </c>
-      <c r="M10" s="84">
-        <f>60*$F10/M$1</f>
+      <c r="M10" s="1">
+        <f t="shared" si="5"/>
         <v>5.8237222493639669</v>
       </c>
-      <c r="N10" s="84">
-        <f>60*$G10/N$1</f>
+      <c r="N10" s="1">
+        <f t="shared" si="6"/>
         <v>8.0439003206134974</v>
       </c>
-      <c r="P10" s="87">
-        <f t="shared" ref="P10" si="16">P9+(H10/24)</f>
+      <c r="P10" s="70">
+        <f t="shared" ref="P10" si="19">P9+(H10/24)</f>
         <v>2.939563406006358</v>
       </c>
-      <c r="Q10" s="87">
-        <f t="shared" ref="Q10" si="17">Q9+(I10/24)</f>
+      <c r="Q10" s="70">
+        <f t="shared" ref="Q10" si="20">Q9+(I10/24)</f>
         <v>2.7414993531963803</v>
       </c>
-      <c r="R10" s="87">
-        <f t="shared" ref="R10" si="18">R9+(J10/24)</f>
+      <c r="R10" s="70">
+        <f t="shared" ref="R10" si="21">R9+(J10/24)</f>
         <v>2.5698438407610662</v>
       </c>
-      <c r="S10" s="87">
-        <f t="shared" ref="S10" si="19">S9+(K10/24)</f>
+      <c r="S10" s="70">
+        <f t="shared" ref="S10" si="22">S9+(K10/24)</f>
         <v>2.4196452673801661</v>
       </c>
-      <c r="T10" s="87">
-        <f t="shared" ref="T10" si="20">T9+(L10/24)</f>
+      <c r="T10" s="70">
+        <f t="shared" ref="T10" si="23">T9+(L10/24)</f>
         <v>2.2871171143970188</v>
       </c>
-      <c r="U10" s="87">
-        <f t="shared" ref="U10" si="21">U9+(M10/24)</f>
+      <c r="U10" s="70">
+        <f t="shared" ref="U10" si="24">U9+(M10/24)</f>
         <v>2.1693143117453331</v>
       </c>
-      <c r="V10" s="87">
-        <f t="shared" ref="V10" si="22">V9+(N10/24)</f>
+      <c r="V10" s="70">
+        <f t="shared" ref="V10" si="25">V9+(N10/24)</f>
         <v>2.9327838241398769</v>
       </c>
     </row>
@@ -2508,88 +2504,84 @@
       <c r="D11" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="E11" s="80">
+      <c r="E11" s="65">
         <f>SUM(E3:E10)</f>
         <v>133.52047519123184</v>
       </c>
-      <c r="F11" s="80">
-        <f t="shared" si="14"/>
+      <c r="F11" s="65">
+        <f t="shared" si="17"/>
         <v>72.095315222831971</v>
       </c>
-      <c r="G11" s="80">
-        <f t="shared" si="15"/>
+      <c r="G11" s="65">
+        <f t="shared" si="18"/>
         <v>82.983514724196297</v>
       </c>
-      <c r="H11" s="80">
+      <c r="H11" s="65">
         <f>SUM(H3:H10)</f>
         <v>66.549521744152585</v>
       </c>
-      <c r="I11" s="80">
-        <f t="shared" ref="I11:N11" si="23">SUM(I3:I10)</f>
+      <c r="I11" s="65">
+        <f t="shared" ref="I11:N11" si="26">SUM(I3:I10)</f>
         <v>61.79598447671313</v>
       </c>
-      <c r="J11" s="80">
-        <f t="shared" si="23"/>
+      <c r="J11" s="65">
+        <f t="shared" si="26"/>
         <v>57.676252178265585</v>
       </c>
-      <c r="K11" s="80">
-        <f t="shared" si="23"/>
+      <c r="K11" s="65">
+        <f t="shared" si="26"/>
         <v>54.071486417123992</v>
       </c>
-      <c r="L11" s="80">
-        <f t="shared" si="23"/>
+      <c r="L11" s="65">
+        <f t="shared" si="26"/>
         <v>50.890810745528455</v>
       </c>
-      <c r="M11" s="80">
-        <f t="shared" si="23"/>
+      <c r="M11" s="65">
+        <f t="shared" si="26"/>
         <v>48.06354348188799</v>
       </c>
-      <c r="N11" s="80">
-        <f t="shared" si="23"/>
+      <c r="N11" s="65">
+        <f t="shared" si="26"/>
         <v>66.386811779357046</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="H12" s="89"/>
+      <c r="H12" s="72"/>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A13" s="78"/>
-      <c r="B13" s="91"/>
-      <c r="I13" s="84"/>
-      <c r="J13" s="84"/>
+      <c r="A13" s="63"/>
+      <c r="B13" s="74"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B14" s="91"/>
-      <c r="I14" s="84"/>
-      <c r="J14" s="84"/>
+      <c r="B14" s="74"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A15" s="78"/>
-      <c r="B15" s="91"/>
-      <c r="D15" s="86"/>
-      <c r="I15" s="84"/>
-      <c r="J15" s="84"/>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B16"/>
-      <c r="C16"/>
+      <c r="A15" s="63"/>
+      <c r="B15" s="74"/>
+      <c r="D15" s="69"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A17" s="78"/>
-      <c r="B17" s="91"/>
-      <c r="C17" s="82" t="s">
-        <v>176</v>
+      <c r="A17" s="63"/>
+      <c r="B17" s="74"/>
+      <c r="C17" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B18" s="91"/>
-      <c r="C18" s="82">
+      <c r="B18" s="74"/>
+      <c r="C18">
         <v>46.649361465959899</v>
       </c>
-      <c r="D18" s="82">
+      <c r="D18">
         <v>16.067067664694601</v>
       </c>
-      <c r="E18" s="86">
+      <c r="E18" s="69">
         <f>MOD(DEGREES(ATAN2(
 COS(RADIANS(C18))*SIN(RADIANS(C19)) - SIN(RADIANS(C18))*COS(RADIANS(C19))*COS(RADIANS(D19-D18)),
 SIN(RADIANS(D19-D18))*COS(RADIANS(C19))
@@ -2598,83 +2590,83 @@
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A19" s="78"/>
-      <c r="B19" s="91"/>
-      <c r="C19" s="85">
+      <c r="A19" s="63"/>
+      <c r="B19" s="74"/>
+      <c r="C19" s="68">
         <v>46.616981674720421</v>
       </c>
-      <c r="D19" s="85">
+      <c r="D19" s="68">
         <v>16.069057084510899</v>
       </c>
-      <c r="H19" s="92"/>
-      <c r="I19" s="92"/>
-      <c r="J19" s="92"/>
-      <c r="K19" s="92"/>
-      <c r="L19" s="92"/>
-      <c r="M19" s="92"/>
-      <c r="N19" s="92"/>
+      <c r="H19" s="75"/>
+      <c r="I19" s="75"/>
+      <c r="J19" s="75"/>
+      <c r="K19" s="75"/>
+      <c r="L19" s="75"/>
+      <c r="M19" s="75"/>
+      <c r="N19" s="75"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B20" s="91"/>
-      <c r="H20" s="92"/>
+      <c r="B20" s="74"/>
+      <c r="H20" s="75"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A21" s="78"/>
-      <c r="B21" s="91"/>
-      <c r="H21" s="92"/>
+      <c r="A21" s="63"/>
+      <c r="B21" s="74"/>
+      <c r="H21" s="75"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B22" s="91"/>
-      <c r="C22" s="93"/>
-      <c r="I22" s="82"/>
+      <c r="B22" s="74"/>
+      <c r="C22" s="76"/>
+      <c r="I22"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A23" s="78"/>
-      <c r="B23" s="91"/>
-      <c r="C23" s="93"/>
+      <c r="A23" s="63"/>
+      <c r="B23" s="74"/>
+      <c r="C23" s="76"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B24" s="91"/>
-      <c r="C24" s="93"/>
+      <c r="B24" s="74"/>
+      <c r="C24" s="76"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A25" s="78"/>
-      <c r="B25" s="91"/>
+      <c r="A25" s="63"/>
+      <c r="B25" s="74"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B26" s="91"/>
+      <c r="B26" s="74"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A27" s="78"/>
-      <c r="B27" s="91"/>
+      <c r="A27" s="63"/>
+      <c r="B27" s="74"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B28" s="91"/>
-      <c r="D28" s="78"/>
+      <c r="B28" s="74"/>
+      <c r="D28" s="63"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A29" s="78"/>
-      <c r="D29" s="78"/>
+      <c r="A29" s="63"/>
+      <c r="D29" s="63"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="D30" s="78"/>
+      <c r="D30" s="63"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A31" s="79"/>
-      <c r="D31" s="78"/>
+      <c r="A31" s="64"/>
+      <c r="D31" s="63"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="D32" s="78"/>
+      <c r="D32" s="63"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="78"/>
-      <c r="D33" s="78"/>
+      <c r="A33" s="63"/>
+      <c r="D33" s="63"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D34" s="78"/>
+      <c r="D34" s="63"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D35" s="78"/>
+      <c r="D35" s="63"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3469,11 +3461,11 @@
       <c r="CP4" s="52" t="s">
         <v>79</v>
       </c>
-      <c r="CQ4" s="66" t="str">
+      <c r="CQ4" s="77" t="str">
         <f t="shared" ref="CQ4:CR12" si="0">B3</f>
         <v>EKIPA</v>
       </c>
-      <c r="CR4" s="66"/>
+      <c r="CR4" s="77"/>
       <c r="CS4" s="53" t="str">
         <f t="shared" ref="CS4:CS12" si="1">D3</f>
         <v>LETALO</v>
@@ -5851,16 +5843,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="79" t="s">
         <v>167</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="13"/>
@@ -5873,10 +5865,10 @@
       <c r="H2" s="13"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="65" t="s">
+      <c r="A3" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="65"/>
+      <c r="B3" s="80"/>
       <c r="C3" s="13"/>
       <c r="D3" s="13"/>
       <c r="E3" s="13"/>
@@ -5885,14 +5877,14 @@
       <c r="H3" s="13"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C5" s="63" t="s">
+      <c r="C5" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="63"/>
-      <c r="G5" s="63"/>
-      <c r="H5" s="63"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="78"/>
+      <c r="G5" s="78"/>
+      <c r="H5" s="78"/>
     </row>
     <row r="6" spans="1:8" s="7" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
@@ -5927,22 +5919,22 @@
       <c r="B7" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="C7" s="81">
-        <v>0</v>
-      </c>
-      <c r="D7" s="81">
-        <v>0</v>
-      </c>
-      <c r="E7" s="81">
-        <v>0</v>
-      </c>
-      <c r="F7" s="81">
-        <v>0</v>
-      </c>
-      <c r="G7" s="81">
-        <v>0</v>
-      </c>
-      <c r="H7" s="81">
+      <c r="C7" s="66">
+        <v>0</v>
+      </c>
+      <c r="D7" s="66">
+        <v>0</v>
+      </c>
+      <c r="E7" s="66">
+        <v>0</v>
+      </c>
+      <c r="F7" s="66">
+        <v>0</v>
+      </c>
+      <c r="G7" s="66">
+        <v>0</v>
+      </c>
+      <c r="H7" s="66">
         <v>0</v>
       </c>
     </row>
@@ -6183,7 +6175,7 @@
       </c>
       <c r="B15" s="6" t="str">
         <f>formule!A9</f>
-        <v>Pokopališče Dolnji Lakoš / Alsólakos</v>
+        <v xml:space="preserve">Pokopališče na sredini poti med Doljn Lakoš in Gornji Lakoš </v>
       </c>
       <c r="C15" s="12">
         <f>formule!P9</f>
@@ -6309,16 +6301,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="79" t="s">
         <v>167</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="13"/>
@@ -6331,10 +6323,10 @@
       <c r="H2" s="13"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="65" t="s">
+      <c r="A3" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="65"/>
+      <c r="B3" s="80"/>
       <c r="C3" s="13"/>
       <c r="D3" s="13"/>
       <c r="E3" s="13"/>
@@ -6343,14 +6335,14 @@
       <c r="H3" s="13"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C5" s="63" t="s">
+      <c r="C5" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="63"/>
-      <c r="G5" s="63"/>
-      <c r="H5" s="63"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="78"/>
+      <c r="G5" s="78"/>
+      <c r="H5" s="78"/>
     </row>
     <row r="6" spans="1:10" s="7" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
@@ -6489,7 +6481,7 @@
       </c>
       <c r="B14" s="6" t="str">
         <f>formule!A9</f>
-        <v>Pokopališče Dolnji Lakoš / Alsólakos</v>
+        <v xml:space="preserve">Pokopališče na sredini poti med Doljn Lakoš in Gornji Lakoš </v>
       </c>
       <c r="C14" s="12"/>
       <c r="D14" s="12"/>
@@ -7343,11 +7335,11 @@
       <c r="CP4" s="52" t="s">
         <v>79</v>
       </c>
-      <c r="CQ4" s="66" t="str">
+      <c r="CQ4" s="77" t="str">
         <f t="shared" ref="CQ4:CQ12" si="0">B3</f>
         <v>EKIPA</v>
       </c>
-      <c r="CR4" s="66"/>
+      <c r="CR4" s="77"/>
       <c r="CS4" s="53" t="str">
         <f t="shared" ref="CS4:CS12" si="1">D3</f>
         <v>LETALO</v>
@@ -9728,20 +9720,20 @@
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="F2" s="67" t="s">
+      <c r="F2" s="81" t="s">
         <v>106</v>
       </c>
-      <c r="G2" s="68"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="69"/>
-      <c r="J2" s="67" t="s">
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="83"/>
+      <c r="J2" s="81" t="s">
         <v>107</v>
       </c>
-      <c r="K2" s="68"/>
-      <c r="L2" s="68"/>
-      <c r="M2" s="68"/>
-      <c r="N2" s="68"/>
-      <c r="O2" s="69"/>
+      <c r="K2" s="82"/>
+      <c r="L2" s="82"/>
+      <c r="M2" s="82"/>
+      <c r="N2" s="82"/>
+      <c r="O2" s="83"/>
       <c r="P2" s="10" t="s">
         <v>108</v>
       </c>
@@ -10259,19 +10251,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="E1" s="70" t="s">
+      <c r="E1" s="90" t="s">
         <v>121</v>
       </c>
-      <c r="F1" s="70"/>
+      <c r="F1" s="90"/>
     </row>
     <row r="3" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>122</v>
       </c>
-      <c r="C3" s="71" t="s">
+      <c r="C3" s="91" t="s">
         <v>123</v>
       </c>
-      <c r="D3" s="71"/>
+      <c r="D3" s="91"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -10324,173 +10316,173 @@
       <c r="B5" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="C5" s="72" t="s">
+      <c r="C5" s="84" t="s">
         <v>128</v>
       </c>
-      <c r="D5" s="73"/>
-      <c r="E5" s="72" t="s">
+      <c r="D5" s="85"/>
+      <c r="E5" s="84" t="s">
         <v>129</v>
       </c>
-      <c r="F5" s="73"/>
-      <c r="G5" s="72" t="s">
+      <c r="F5" s="85"/>
+      <c r="G5" s="84" t="s">
         <v>130</v>
       </c>
-      <c r="H5" s="73"/>
-      <c r="I5" s="72" t="s">
+      <c r="H5" s="85"/>
+      <c r="I5" s="84" t="s">
         <v>131</v>
       </c>
-      <c r="J5" s="73"/>
-      <c r="K5" s="72" t="s">
+      <c r="J5" s="85"/>
+      <c r="K5" s="84" t="s">
         <v>131</v>
       </c>
-      <c r="L5" s="73"/>
-      <c r="M5" s="72" t="s">
+      <c r="L5" s="85"/>
+      <c r="M5" s="84" t="s">
         <v>132</v>
       </c>
-      <c r="N5" s="73"/>
-      <c r="O5" s="72" t="s">
+      <c r="N5" s="85"/>
+      <c r="O5" s="84" t="s">
         <v>131</v>
       </c>
-      <c r="P5" s="73"/>
+      <c r="P5" s="85"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="C6" s="72" t="s">
+      <c r="C6" s="84" t="s">
         <v>134</v>
       </c>
-      <c r="D6" s="73"/>
-      <c r="E6" s="72" t="s">
+      <c r="D6" s="85"/>
+      <c r="E6" s="84" t="s">
         <v>135</v>
       </c>
-      <c r="F6" s="73"/>
-      <c r="G6" s="72" t="s">
+      <c r="F6" s="85"/>
+      <c r="G6" s="84" t="s">
         <v>136</v>
       </c>
-      <c r="H6" s="73"/>
-      <c r="I6" s="72" t="s">
+      <c r="H6" s="85"/>
+      <c r="I6" s="84" t="s">
         <v>137</v>
       </c>
-      <c r="J6" s="73"/>
-      <c r="K6" s="72" t="s">
+      <c r="J6" s="85"/>
+      <c r="K6" s="84" t="s">
         <v>138</v>
       </c>
-      <c r="L6" s="73"/>
-      <c r="M6" s="72" t="s">
+      <c r="L6" s="85"/>
+      <c r="M6" s="84" t="s">
         <v>139</v>
       </c>
-      <c r="N6" s="73"/>
-      <c r="O6" s="72" t="s">
+      <c r="N6" s="85"/>
+      <c r="O6" s="84" t="s">
         <v>140</v>
       </c>
-      <c r="P6" s="73"/>
+      <c r="P6" s="85"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B7" s="18" t="s">
         <v>141</v>
       </c>
-      <c r="C7" s="72" t="s">
+      <c r="C7" s="84" t="s">
         <v>142</v>
       </c>
-      <c r="D7" s="73"/>
-      <c r="E7" s="72" t="s">
+      <c r="D7" s="85"/>
+      <c r="E7" s="84" t="s">
         <v>143</v>
       </c>
-      <c r="F7" s="73"/>
-      <c r="G7" s="72" t="s">
+      <c r="F7" s="85"/>
+      <c r="G7" s="84" t="s">
         <v>143</v>
       </c>
-      <c r="H7" s="73"/>
-      <c r="I7" s="72" t="s">
+      <c r="H7" s="85"/>
+      <c r="I7" s="84" t="s">
         <v>144</v>
       </c>
-      <c r="J7" s="73"/>
-      <c r="K7" s="72" t="s">
+      <c r="J7" s="85"/>
+      <c r="K7" s="84" t="s">
         <v>143</v>
       </c>
-      <c r="L7" s="73"/>
-      <c r="M7" s="72" t="s">
+      <c r="L7" s="85"/>
+      <c r="M7" s="84" t="s">
         <v>144</v>
       </c>
-      <c r="N7" s="73"/>
-      <c r="O7" s="72" t="s">
+      <c r="N7" s="85"/>
+      <c r="O7" s="84" t="s">
         <v>144</v>
       </c>
-      <c r="P7" s="73"/>
+      <c r="P7" s="85"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B8" s="18" t="s">
         <v>145</v>
       </c>
-      <c r="C8" s="72">
+      <c r="C8" s="84">
         <v>80</v>
       </c>
-      <c r="D8" s="73"/>
-      <c r="E8" s="72">
+      <c r="D8" s="85"/>
+      <c r="E8" s="84">
         <v>60</v>
       </c>
-      <c r="F8" s="73"/>
-      <c r="G8" s="76">
+      <c r="F8" s="85"/>
+      <c r="G8" s="86">
         <v>80</v>
       </c>
-      <c r="H8" s="77"/>
-      <c r="I8" s="76">
+      <c r="H8" s="87"/>
+      <c r="I8" s="86">
         <v>80</v>
       </c>
-      <c r="J8" s="77"/>
-      <c r="K8" s="76">
+      <c r="J8" s="87"/>
+      <c r="K8" s="86">
         <v>70</v>
       </c>
-      <c r="L8" s="77"/>
-      <c r="M8" s="76">
+      <c r="L8" s="87"/>
+      <c r="M8" s="86">
         <v>65.173199999999994</v>
       </c>
-      <c r="N8" s="77"/>
-      <c r="O8" s="76">
+      <c r="N8" s="87"/>
+      <c r="O8" s="86">
         <v>70</v>
       </c>
-      <c r="P8" s="77"/>
+      <c r="P8" s="87"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B9" s="18" t="s">
         <v>146</v>
       </c>
-      <c r="C9" s="74">
+      <c r="C9" s="88">
         <f>C8*1.852</f>
         <v>148.16</v>
       </c>
-      <c r="D9" s="75"/>
-      <c r="E9" s="74">
+      <c r="D9" s="89"/>
+      <c r="E9" s="88">
         <f>E8*1.852</f>
         <v>111.12</v>
       </c>
-      <c r="F9" s="75"/>
-      <c r="G9" s="74">
+      <c r="F9" s="89"/>
+      <c r="G9" s="88">
         <f>G8*1.852</f>
         <v>148.16</v>
       </c>
-      <c r="H9" s="75"/>
-      <c r="I9" s="74">
+      <c r="H9" s="89"/>
+      <c r="I9" s="88">
         <f>I8*1.852</f>
         <v>148.16</v>
       </c>
-      <c r="J9" s="75"/>
-      <c r="K9" s="74">
+      <c r="J9" s="89"/>
+      <c r="K9" s="88">
         <f>K8*1.852</f>
         <v>129.64000000000001</v>
       </c>
-      <c r="L9" s="75"/>
-      <c r="M9" s="74">
+      <c r="L9" s="89"/>
+      <c r="M9" s="88">
         <f>M8*1.852</f>
         <v>120.70076639999999</v>
       </c>
-      <c r="N9" s="75"/>
-      <c r="O9" s="74">
+      <c r="N9" s="89"/>
+      <c r="O9" s="88">
         <f>O8*1.852</f>
         <v>129.64000000000001</v>
       </c>
-      <c r="P9" s="75"/>
+      <c r="P9" s="89"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
@@ -12235,31 +12227,11 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
     <mergeCell ref="K5:L5"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="E6:F6"/>
@@ -12267,11 +12239,31 @@
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="I5:J5"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="49" orientation="landscape" r:id="rId1"/>

--- a/Tvn2025.xlsx
+++ b/Tvn2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://panvitadd-my.sharepoint.com/personal/simon_ravnic_panvita_si/Documents/aaPrivat/AKMS/Točen v nulo 2025/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="195" documentId="8_{9EC61524-7F1E-574B-BB2A-7819609ED165}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{35F5EAEF-E9D5-7F4A-A46B-F6B323D0D855}"/>
+  <xr:revisionPtr revIDLastSave="197" documentId="8_{9EC61524-7F1E-574B-BB2A-7819609ED165}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5DF47F67-A93F-0949-A062-5D9E43839B3C}"/>
   <bookViews>
-    <workbookView xWindow="9920" yWindow="3860" windowWidth="29040" windowHeight="22060" xr2:uid="{B1C474AA-14A0-F24B-ACAB-FA280ABE2931}"/>
+    <workbookView xWindow="2860" yWindow="1840" windowWidth="29040" windowHeight="22060" xr2:uid="{B1C474AA-14A0-F24B-ACAB-FA280ABE2931}"/>
   </bookViews>
   <sheets>
     <sheet name="formule" sheetId="1" r:id="rId1"/>
@@ -597,7 +597,7 @@
     <numFmt numFmtId="168" formatCode="#,##0.0000"/>
     <numFmt numFmtId="169" formatCode="#,##0.00000000"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -680,6 +680,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Menlo"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="10">
@@ -1017,7 +1023,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1174,10 +1180,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="166" fontId="5" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1186,18 +1204,7 @@
     <xf numFmtId="166" fontId="5" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1689,7 +1696,7 @@
   <dimension ref="A1:V35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="B23" sqref="B23:B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2622,44 +2629,49 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="63"/>
-      <c r="B23" s="74"/>
+      <c r="B23" s="92"/>
       <c r="C23" s="76"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B24" s="74"/>
+      <c r="B24" s="92"/>
       <c r="C24" s="76"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="63"/>
-      <c r="B25" s="74"/>
+      <c r="B25" s="92"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B26" s="74"/>
+      <c r="B26" s="92"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="63"/>
-      <c r="B27" s="74"/>
+      <c r="B27" s="92"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B28" s="74"/>
+      <c r="B28" s="92"/>
       <c r="D28" s="63"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="63"/>
+      <c r="B29" s="92"/>
       <c r="D29" s="63"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B30" s="92"/>
       <c r="D30" s="63"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="64"/>
+      <c r="B31" s="92"/>
       <c r="D31" s="63"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B32" s="92"/>
       <c r="D32" s="63"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="63"/>
+      <c r="B33" s="92"/>
       <c r="D33" s="63"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
@@ -10251,19 +10263,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="E1" s="90" t="s">
+      <c r="E1" s="84" t="s">
         <v>121</v>
       </c>
-      <c r="F1" s="90"/>
+      <c r="F1" s="84"/>
     </row>
     <row r="3" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>122</v>
       </c>
-      <c r="C3" s="91" t="s">
+      <c r="C3" s="85" t="s">
         <v>123</v>
       </c>
-      <c r="D3" s="91"/>
+      <c r="D3" s="85"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -10316,133 +10328,133 @@
       <c r="B5" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="C5" s="84" t="s">
+      <c r="C5" s="86" t="s">
         <v>128</v>
       </c>
-      <c r="D5" s="85"/>
-      <c r="E5" s="84" t="s">
+      <c r="D5" s="87"/>
+      <c r="E5" s="86" t="s">
         <v>129</v>
       </c>
-      <c r="F5" s="85"/>
-      <c r="G5" s="84" t="s">
+      <c r="F5" s="87"/>
+      <c r="G5" s="86" t="s">
         <v>130</v>
       </c>
-      <c r="H5" s="85"/>
-      <c r="I5" s="84" t="s">
+      <c r="H5" s="87"/>
+      <c r="I5" s="86" t="s">
         <v>131</v>
       </c>
-      <c r="J5" s="85"/>
-      <c r="K5" s="84" t="s">
+      <c r="J5" s="87"/>
+      <c r="K5" s="86" t="s">
         <v>131</v>
       </c>
-      <c r="L5" s="85"/>
-      <c r="M5" s="84" t="s">
+      <c r="L5" s="87"/>
+      <c r="M5" s="86" t="s">
         <v>132</v>
       </c>
-      <c r="N5" s="85"/>
-      <c r="O5" s="84" t="s">
+      <c r="N5" s="87"/>
+      <c r="O5" s="86" t="s">
         <v>131</v>
       </c>
-      <c r="P5" s="85"/>
+      <c r="P5" s="87"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="C6" s="84" t="s">
+      <c r="C6" s="86" t="s">
         <v>134</v>
       </c>
-      <c r="D6" s="85"/>
-      <c r="E6" s="84" t="s">
+      <c r="D6" s="87"/>
+      <c r="E6" s="86" t="s">
         <v>135</v>
       </c>
-      <c r="F6" s="85"/>
-      <c r="G6" s="84" t="s">
+      <c r="F6" s="87"/>
+      <c r="G6" s="86" t="s">
         <v>136</v>
       </c>
-      <c r="H6" s="85"/>
-      <c r="I6" s="84" t="s">
+      <c r="H6" s="87"/>
+      <c r="I6" s="86" t="s">
         <v>137</v>
       </c>
-      <c r="J6" s="85"/>
-      <c r="K6" s="84" t="s">
+      <c r="J6" s="87"/>
+      <c r="K6" s="86" t="s">
         <v>138</v>
       </c>
-      <c r="L6" s="85"/>
-      <c r="M6" s="84" t="s">
+      <c r="L6" s="87"/>
+      <c r="M6" s="86" t="s">
         <v>139</v>
       </c>
-      <c r="N6" s="85"/>
-      <c r="O6" s="84" t="s">
+      <c r="N6" s="87"/>
+      <c r="O6" s="86" t="s">
         <v>140</v>
       </c>
-      <c r="P6" s="85"/>
+      <c r="P6" s="87"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B7" s="18" t="s">
         <v>141</v>
       </c>
-      <c r="C7" s="84" t="s">
+      <c r="C7" s="86" t="s">
         <v>142</v>
       </c>
-      <c r="D7" s="85"/>
-      <c r="E7" s="84" t="s">
+      <c r="D7" s="87"/>
+      <c r="E7" s="86" t="s">
         <v>143</v>
       </c>
-      <c r="F7" s="85"/>
-      <c r="G7" s="84" t="s">
+      <c r="F7" s="87"/>
+      <c r="G7" s="86" t="s">
         <v>143</v>
       </c>
-      <c r="H7" s="85"/>
-      <c r="I7" s="84" t="s">
+      <c r="H7" s="87"/>
+      <c r="I7" s="86" t="s">
         <v>144</v>
       </c>
-      <c r="J7" s="85"/>
-      <c r="K7" s="84" t="s">
+      <c r="J7" s="87"/>
+      <c r="K7" s="86" t="s">
         <v>143</v>
       </c>
-      <c r="L7" s="85"/>
-      <c r="M7" s="84" t="s">
+      <c r="L7" s="87"/>
+      <c r="M7" s="86" t="s">
         <v>144</v>
       </c>
-      <c r="N7" s="85"/>
-      <c r="O7" s="84" t="s">
+      <c r="N7" s="87"/>
+      <c r="O7" s="86" t="s">
         <v>144</v>
       </c>
-      <c r="P7" s="85"/>
+      <c r="P7" s="87"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B8" s="18" t="s">
         <v>145</v>
       </c>
-      <c r="C8" s="84">
+      <c r="C8" s="86">
         <v>80</v>
       </c>
-      <c r="D8" s="85"/>
-      <c r="E8" s="84">
+      <c r="D8" s="87"/>
+      <c r="E8" s="86">
         <v>60</v>
       </c>
-      <c r="F8" s="85"/>
-      <c r="G8" s="86">
+      <c r="F8" s="87"/>
+      <c r="G8" s="90">
         <v>80</v>
       </c>
-      <c r="H8" s="87"/>
-      <c r="I8" s="86">
+      <c r="H8" s="91"/>
+      <c r="I8" s="90">
         <v>80</v>
       </c>
-      <c r="J8" s="87"/>
-      <c r="K8" s="86">
+      <c r="J8" s="91"/>
+      <c r="K8" s="90">
         <v>70</v>
       </c>
-      <c r="L8" s="87"/>
-      <c r="M8" s="86">
+      <c r="L8" s="91"/>
+      <c r="M8" s="90">
         <v>65.173199999999994</v>
       </c>
-      <c r="N8" s="87"/>
-      <c r="O8" s="86">
+      <c r="N8" s="91"/>
+      <c r="O8" s="90">
         <v>70</v>
       </c>
-      <c r="P8" s="87"/>
+      <c r="P8" s="91"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B9" s="18" t="s">
@@ -12227,11 +12239,31 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:L9"/>
     <mergeCell ref="K5:L5"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="E6:F6"/>
@@ -12239,31 +12271,11 @@
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="I5:J5"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="49" orientation="landscape" r:id="rId1"/>
